--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAE325-7386-1C45-992A-D5E5B68B8113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E1A93-D45D-444F-8986-228BAF1221E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="2360" windowWidth="15500" windowHeight="16240" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,62 +502,69 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45624</v>
+        <v>45563</v>
       </c>
       <c r="B2" s="3">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="C2" s="3">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D2" s="3">
         <f>C2-B2</f>
-        <v>8.3333333333333343E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E2" s="5">
         <f>D2*1440</f>
-        <v>120.00000000000001</v>
+        <v>120.00000000000006</v>
       </c>
       <c r="F2" s="5">
         <f>E2/60</f>
-        <v>2.0000000000000004</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G2" s="7">
         <f>F2*22.5</f>
-        <v>45.000000000000007</v>
+        <v>45.000000000000021</v>
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>2.0000000000000004</v>
+        <v>3.5000000000000009</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>45.000000000000007</v>
+        <v>78.750000000000028</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>36.900000000000006</v>
+        <v>64.575000000000031</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45565</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D3" s="3">
         <f>C3-B3</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E3" s="5">
         <f>D3*1440</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F3" s="5">
         <f>E3/60</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G19" si="0">F3*22.5</f>
-        <v>0</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E1A93-D45D-444F-8986-228BAF1221E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B56662-0BE2-934A-8097-02B1262580F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="2360" windowWidth="15500" windowHeight="16240" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Taxed</t>
+  </si>
+  <si>
+    <t>DON'T FORGET TO SAVE (local)</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -894,7 +897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B56662-0BE2-934A-8097-02B1262580F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC0819-C6C6-4A0A-81ED-B1659F8B9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="2360" windowWidth="15500" windowHeight="16240" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,17 +461,17 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -531,20 +531,19 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>3.5000000000000009</v>
+        <v>-12</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>78.750000000000028</v>
+        <v>-270</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>64.575000000000031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-221.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f ca="1">TODAY()</f>
         <v>45565</v>
       </c>
       <c r="B3" s="3">
@@ -570,28 +569,33 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>A3</f>
+        <v>45565</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
         <f>C4-B4</f>
-        <v>0</v>
+        <v>-0.64583333333333337</v>
       </c>
       <c r="E4" s="5">
         <f>D4*1440</f>
-        <v>0</v>
+        <v>-930</v>
       </c>
       <c r="F4" s="5">
         <f>E4/60</f>
-        <v>0</v>
+        <v>-15.5</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-348.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -612,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -633,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -654,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -675,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -696,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -717,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -738,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -759,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -780,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -801,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -822,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -843,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -861,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -879,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -897,12 +901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BC0819-C6C6-4A0A-81ED-B1659F8B9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECA809A-0C69-4B8D-9AD5-9A9DBD19F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECA809A-0C69-4B8D-9AD5-9A9DBD19F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83ED7DC-393A-4D31-8109-803B3C68D4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,15 +531,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>-12</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>-270</v>
+        <v>133.125</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>-221.4</v>
+        <v>109.16250000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,22 +577,24 @@
       <c r="B4" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0.74652777777777779</v>
+      </c>
       <c r="D4" s="3">
         <f>C4-B4</f>
-        <v>-0.64583333333333337</v>
+        <v>0.10069444444444442</v>
       </c>
       <c r="E4" s="5">
         <f>D4*1440</f>
-        <v>-930</v>
+        <v>144.99999999999997</v>
       </c>
       <c r="F4" s="5">
         <f>E4/60</f>
-        <v>-15.5</v>
+        <v>2.4166666666666661</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>-348.75</v>
+        <v>54.374999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83ED7DC-393A-4D31-8109-803B3C68D4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CB4E4-B4F1-4819-801A-D8D2FCFD630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,15 +531,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>5.916666666666667</v>
+        <v>6.9166666666666661</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>133.125</v>
+        <v>155.62499999999997</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>109.16250000000001</v>
+        <v>127.61249999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -598,24 +598,30 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D19" si="1">C5-B5</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E19" si="2">D5*1440</f>
-        <v>0</v>
+        <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F19" si="3">E5/60</f>
-        <v>0</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.499999999999979</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CB4E4-B4F1-4819-801A-D8D2FCFD630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798A8FB-AC77-475F-80CE-624E160CC957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,15 +531,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>6.9166666666666661</v>
+        <v>7.8333333333333339</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>155.62499999999997</v>
+        <v>176.25</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>127.61249999999998</v>
+        <v>144.52500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -625,24 +625,30 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.49652777777777779</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8194444444444475E-2</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>55.000000000000043</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.91666666666666741</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.625000000000018</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798A8FB-AC77-475F-80CE-624E160CC957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EF05B-CC5B-8D41-B141-11C2747E14A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,17 +461,17 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -531,18 +531,18 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>7.8333333333333339</v>
+        <v>-5.5</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>176.25</v>
+        <v>-123.75</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>144.52500000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-101.47500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -569,7 +569,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -597,7 +597,7 @@
         <v>54.374999999999986</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -624,7 +624,7 @@
         <v>22.499999999999979</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -651,28 +651,32 @@
         <v>20.625000000000018</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-13.333333333333334</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -693,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -714,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -735,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -756,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -777,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -798,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -819,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -840,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -861,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -879,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -897,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -915,12 +919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EF05B-CC5B-8D41-B141-11C2747E14A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEFE1E-D059-7E45-9622-32B1F626B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,15 +531,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>-5.5</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>-123.75</v>
+        <v>206.25</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>-101.47500000000001</v>
+        <v>169.125</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,22 +658,24 @@
       <c r="B7" s="3">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.61111111111111116</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>-0.55555555555555558</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>-800</v>
+        <v>80.000000000000028</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="3"/>
-        <v>-13.333333333333334</v>
+        <v>1.3333333333333337</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>30.000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEFE1E-D059-7E45-9622-32B1F626B8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB98FAA-8926-4595-A728-21C7E4A100D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>DON'T FORGET TO SAVE (local)</t>
+  </si>
+  <si>
+    <t>Hour Totals</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -458,20 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +508,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -531,18 +543,25 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>9.1666666666666679</v>
+        <v>10.750000000000004</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>206.25</v>
+        <v>241.87500000000006</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>169.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>198.33750000000006</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <f>D2</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -568,8 +587,16 @@
         <f t="shared" ref="G3:G19" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f>L2+1</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <f>SUM(D3:D8)</f>
+        <v>0.36458333333333343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -596,8 +623,12 @@
         <f t="shared" si="0"/>
         <v>54.374999999999986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="1">L3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -608,23 +639,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D19" si="1">C5-B5</f>
+        <f t="shared" ref="D5:D19" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E19" si="2">D5*1440</f>
+        <f t="shared" ref="E5:E19" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F19" si="3">E5/60</f>
+        <f t="shared" ref="F5:F19" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -635,23 +670,27 @@
         <v>0.49652777777777779</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>3.8194444444444475E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="3"/>
+        <v>55.000000000000043</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.91666666666666741</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>20.625000000000018</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>3.8194444444444475E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>55.000000000000043</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="3"/>
-        <v>0.91666666666666741</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>20.625000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -662,141 +701,171 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="3"/>
+        <v>80.000000000000028</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333337</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>30.000000000000007</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>5.555555555555558E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="2"/>
-        <v>80.000000000000028</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333337</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>30.000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45570</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.57986111111111116</v>
+      </c>
       <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5972222222222321E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="3"/>
+        <v>95.000000000000142</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5833333333333357</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>35.625000000000057</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="7">
@@ -804,20 +873,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="7">
@@ -825,20 +894,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="7">
@@ -846,20 +915,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16" s="7">
@@ -867,17 +936,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -885,17 +954,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G18" s="7">
@@ -903,17 +972,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="7">
@@ -921,12 +990,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB98FAA-8926-4595-A728-21C7E4A100D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9D469-B685-480B-8DAD-E6C3C116B665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +514,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -543,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>10.750000000000004</v>
+        <v>11.750000000000002</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>241.87500000000006</v>
+        <v>264.37500000000006</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>198.33750000000006</v>
+        <v>216.78750000000005</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -561,7 +564,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -592,11 +595,15 @@
         <v>2</v>
       </c>
       <c r="M3" s="3">
-        <f>SUM(D3:D8)</f>
-        <v>0.36458333333333343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f>SUM(D3:D9)</f>
+        <v>0.40625000000000006</v>
+      </c>
+      <c r="N3" s="7">
+        <f>SUM(G3:G9)</f>
+        <v>219.37500000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -628,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -659,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -690,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -721,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -752,32 +759,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.62152777777777779</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>59.999999999999943</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.499999999999979</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -802,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -827,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -852,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -873,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -894,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -915,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9D469-B685-480B-8DAD-E6C3C116B665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13888642-E5C8-1E43-9C0D-5D3AF3A682A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,17 +467,17 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>11.750000000000002</v>
+        <v>13.216666666666665</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>264.37500000000006</v>
+        <v>297.375</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>216.78750000000005</v>
+        <v>243.84750000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -603,7 +603,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -634,8 +634,16 @@
         <f t="shared" ref="L4:L12" si="1">L3+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <f>SUM(D10:D11)</f>
+        <v>6.1111111111111005E-2</v>
+      </c>
+      <c r="N4" s="7">
+        <f>SUM(G10:G11)</f>
+        <v>32.999999999999943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -666,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -697,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -728,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -759,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -790,57 +798,69 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79027777777777775</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9444444444444375E-2</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.999999999999901</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.46666666666666501</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.499999999999963</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>45575</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.875</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>59.999999999999943</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.499999999999979</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -865,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -886,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -907,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -928,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -949,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -967,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -985,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1003,12 +1023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13888642-E5C8-1E43-9C0D-5D3AF3A682A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FDF397-2C23-DF45-8962-4B2B707EA994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>13.216666666666665</v>
+        <v>13.833333333333332</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>297.375</v>
+        <v>311.25</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>243.84750000000003</v>
+        <v>255.22500000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -861,24 +861,30 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2">
+        <v>45576</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5694444444444464E-2</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>37.000000000000028</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.61666666666666714</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.875000000000011</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FDF397-2C23-DF45-8962-4B2B707EA994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5C2A95-423D-432F-9623-42D7782FD478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,17 +467,17 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>13.833333333333332</v>
+        <v>15.899999999999999</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>311.25</v>
+        <v>357.75</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>255.22500000000002</v>
+        <v>293.35500000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -563,8 +563,12 @@
         <f>D2</f>
         <v>8.333333333333337E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="7">
+        <f>G2</f>
+        <v>45.000000000000021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -603,7 +607,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -635,15 +639,15 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <f>SUM(D10:D11)</f>
-        <v>6.1111111111111005E-2</v>
+        <f>SUM(D10:D13)</f>
+        <v>0.17291666666666655</v>
       </c>
       <c r="N4" s="7">
-        <f>SUM(G10:G11)</f>
-        <v>32.999999999999943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <f>SUM(G10:G13)</f>
+        <v>93.374999999999943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -674,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -705,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -736,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -767,7 +771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -798,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -829,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -860,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -891,28 +895,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45577</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.57152777777777775</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.6111111111111083E-2</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>123.99999999999996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.066666666666666</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>46.499999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -933,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -954,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -975,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -993,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1011,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1029,12 +1039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apcarr\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5C2A95-423D-432F-9623-42D7782FD478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8F95E-BFCC-463D-BD9F-0602F24D5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="3180" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,18 +466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>15.899999999999999</v>
+        <v>18.449999999999996</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>357.75</v>
+        <v>415.125</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>293.35500000000002</v>
+        <v>340.40250000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -607,7 +607,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -639,15 +639,15 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <f>SUM(D10:D13)</f>
-        <v>0.17291666666666655</v>
+        <f>SUM(D10:D14)</f>
+        <v>0.27916666666666651</v>
       </c>
       <c r="N4" s="7">
-        <f>SUM(G10:G13)</f>
-        <v>93.374999999999943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(G10:G14)</f>
+        <v>150.74999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -895,7 +895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -922,28 +922,34 @@
         <v>46.499999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="8">
+        <v>45577</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.73333333333333328</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10624999999999996</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>152.99999999999994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5499999999999989</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57.374999999999979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1039,12 +1045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15.75">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apcarr\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8F95E-BFCC-463D-BD9F-0602F24D5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC85A273-5689-4EE9-9F10-39A9F7353B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,18 +466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>18.449999999999996</v>
+        <v>8.3166666666666629</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>415.125</v>
+        <v>187.125</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>340.40250000000003</v>
+        <v>153.44250000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -607,7 +607,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -647,7 +647,7 @@
         <v>150.74999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -895,7 +895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -922,7 +922,7 @@
         <v>46.499999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -949,28 +949,32 @@
         <v>57.374999999999979</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45578</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.42222222222222222</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.42222222222222222</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-608</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-10.133333333333333</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>-228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -991,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1009,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1027,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1045,12 +1049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15.75">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC85A273-5689-4EE9-9F10-39A9F7353B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159182F-BFB4-4440-9F44-85951CFA9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>8.3166666666666629</v>
+        <v>21.399999999999995</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>187.125</v>
+        <v>481.5</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>153.44250000000002</v>
+        <v>394.83000000000004</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -639,12 +639,12 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <f>SUM(D10:D14)</f>
-        <v>0.27916666666666651</v>
+        <f>SUM(D10:D15)</f>
+        <v>0.40208333333333313</v>
       </c>
       <c r="N4" s="7">
-        <f>SUM(G10:G14)</f>
-        <v>150.74999999999991</v>
+        <f>SUM(G10:G15)</f>
+        <v>217.12499999999989</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -956,22 +956,24 @@
       <c r="B15" s="3">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>0.54513888888888884</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>-0.42222222222222222</v>
+        <v>0.12291666666666662</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="3"/>
-        <v>-608</v>
+        <v>176.99999999999994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>-10.133333333333333</v>
+        <v>2.9499999999999988</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>-228</v>
+        <v>66.374999999999972</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159182F-BFB4-4440-9F44-85951CFA9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53F30C-A93B-434A-ADD2-B2D0F7D16734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,15 +546,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>21.399999999999995</v>
+        <v>22.233333333333327</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>481.5</v>
+        <v>500.25</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>394.83000000000004</v>
+        <v>410.20500000000004</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -639,12 +639,12 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <f>SUM(D10:D15)</f>
-        <v>0.40208333333333313</v>
+        <f>SUM(D10:D16)</f>
+        <v>0.43680555555555534</v>
       </c>
       <c r="N4" s="7">
-        <f>SUM(G10:G15)</f>
-        <v>217.12499999999989</v>
+        <f>SUM(G10:G16)</f>
+        <v>235.87499999999989</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -977,24 +977,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2">
+        <v>45578</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.62083333333333335</v>
+      </c>
       <c r="D16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49.999999999999986</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.83333333333333315</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.749999999999996</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53F30C-A93B-434A-ADD2-B2D0F7D16734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E07840-F0E8-4AF5-AE86-02950E3D2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -130,6 +130,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,15 +547,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>22.233333333333327</v>
+        <v>23.883333333333326</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>500.25</v>
+        <v>537.375</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>410.20500000000004</v>
+        <v>440.64750000000004</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -639,12 +640,12 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <f>SUM(D10:D16)</f>
-        <v>0.43680555555555534</v>
+        <f>SUM(D10:D17)</f>
+        <v>0.50555555555555531</v>
       </c>
       <c r="N4" s="7">
-        <f>SUM(G10:G16)</f>
-        <v>235.87499999999989</v>
+        <f>SUM(G10:G17)</f>
+        <v>272.99999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1003,66 +1004,75 @@
         <v>18.749999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45578</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.98263888888888884</v>
+      </c>
       <c r="D17" s="3">
         <f t="shared" si="2"/>
+        <v>6.8749999999999978E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>98.999999999999972</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6499999999999995</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>37.124999999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
   </sheetData>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E07840-F0E8-4AF5-AE86-02950E3D2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18818F4D-CB94-45DC-B31C-C0A86E842BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25275" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="2415" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,15 +547,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>23.883333333333326</v>
+        <v>25.883333333333326</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>537.375</v>
+        <v>582.375</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>440.64750000000004</v>
+        <v>477.54750000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -678,6 +678,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="M5" s="3">
+        <f>SUM(D18)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="N5" s="7">
+        <f>SUM(G18)</f>
+        <v>45.000000000000021</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1032,21 +1040,30 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45579</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.89930555555555558</v>
+      </c>
       <c r="D18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>120.00000000000006</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45.000000000000021</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18818F4D-CB94-45DC-B31C-C0A86E842BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B1B836-62B1-47C1-820B-5E42F000F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,15 +547,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>25.883333333333326</v>
+        <v>26.766666666666659</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>582.375</v>
+        <v>602.25</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>477.54750000000001</v>
+        <v>493.84500000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -679,12 +679,12 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <f>SUM(D18)</f>
-        <v>8.333333333333337E-2</v>
+        <f>SUM(D18:D19)</f>
+        <v>0.12013888888888891</v>
       </c>
       <c r="N5" s="7">
-        <f>SUM(G18)</f>
-        <v>45.000000000000021</v>
+        <f>SUM(G18:G19)</f>
+        <v>64.875000000000014</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1067,21 +1067,30 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45580</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.98402777777777772</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.0208333333333333</v>
+      </c>
       <c r="D19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6805555555555536E-2</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52.999999999999972</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.88333333333333286</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.874999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B1B836-62B1-47C1-820B-5E42F000F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A32231-AFC3-4F2C-B213-46D1C917E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,15 +547,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>26.766666666666659</v>
+        <v>28.333333333333329</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>602.25</v>
+        <v>637.5</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>493.84500000000003</v>
+        <v>522.75</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G19" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G20" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="L3">
@@ -659,15 +659,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D19" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D20" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E19" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E20" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F19" si="4">E5/60</f>
+        <f t="shared" ref="F5:F20" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -679,12 +679,12 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <f>SUM(D18:D19)</f>
-        <v>0.12013888888888891</v>
+        <f>SUM(D18:D20)</f>
+        <v>0.18541666666666679</v>
       </c>
       <c r="N5" s="7">
-        <f>SUM(G18:G19)</f>
-        <v>64.875000000000014</v>
+        <f>SUM(G18:G20)</f>
+        <v>100.12500000000007</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1091,6 +1091,33 @@
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>19.874999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.98541666666666672</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5277777777777879E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="3"/>
+        <v>94.000000000000142</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5666666666666691</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>35.250000000000057</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A32231-AFC3-4F2C-B213-46D1C917E13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871F70C-490D-478F-831A-B1BCB2713B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,15 +547,15 @@
       </c>
       <c r="H2" s="5">
         <f>SUM(F:F)</f>
-        <v>28.333333333333329</v>
+        <v>30.599999999999994</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(G:G)</f>
-        <v>637.5</v>
+        <v>688.5</v>
       </c>
       <c r="J2" s="7">
         <f>I2*(1-0.18)</f>
-        <v>522.75</v>
+        <v>564.57000000000005</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G20" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G21" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="L3">
@@ -659,15 +659,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D20" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D21" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E20" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E21" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F20" si="4">E5/60</f>
+        <f t="shared" ref="F5:F21" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -679,12 +679,12 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <f>SUM(D18:D20)</f>
-        <v>0.18541666666666679</v>
+        <f>SUM(D18:D21)</f>
+        <v>0.27986111111111123</v>
       </c>
       <c r="N5" s="7">
-        <f>SUM(G18:G20)</f>
-        <v>100.12500000000007</v>
+        <f>SUM(G18:G21)</f>
+        <v>151.12500000000006</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1120,13 +1120,40 @@
         <v>35.250000000000057</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>10</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45584</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.67291666666666672</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6871F70C-490D-478F-831A-B1BCB2713B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5976BEFC-BFBF-4B11-9701-C7F66C1FD76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-27930" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-4" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>Logged?</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -467,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,12 +507,15 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -545,17 +554,17 @@
         <f>F2*22.5</f>
         <v>45.000000000000021</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>30.599999999999994</v>
-      </c>
-      <c r="I2" s="7">
+        <v>33.699999999999996</v>
+      </c>
+      <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>688.5</v>
-      </c>
-      <c r="J2" s="7">
-        <f>I2*(1-0.18)</f>
-        <v>564.57000000000005</v>
+        <v>758.25</v>
+      </c>
+      <c r="K2" s="7">
+        <f>J2*(1-0.18)</f>
+        <v>621.7650000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -592,7 +601,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G21" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G22" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="L3">
@@ -659,15 +668,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D21" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D22" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E21" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E22" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F21" si="4">E5/60</f>
+        <f t="shared" ref="F5:F22" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -679,8 +688,8 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <f>SUM(D18:D21)</f>
-        <v>0.27986111111111123</v>
+        <f>SUM(D18:D22)</f>
+        <v>0.40902777777777788</v>
       </c>
       <c r="N5" s="7">
         <f>SUM(G18:G21)</f>
@@ -713,6 +722,9 @@
         <f t="shared" si="0"/>
         <v>20.625000000000018</v>
       </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
       <c r="L6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -744,6 +756,9 @@
         <f t="shared" si="0"/>
         <v>30.000000000000007</v>
       </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
       <c r="L7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -775,6 +790,9 @@
         <f t="shared" si="0"/>
         <v>35.625000000000057</v>
       </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
       <c r="L8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -806,6 +824,9 @@
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
       <c r="L9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -837,6 +858,9 @@
         <f t="shared" si="0"/>
         <v>10.499999999999963</v>
       </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
       <c r="L10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -868,6 +892,9 @@
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
       <c r="L11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -899,6 +926,9 @@
         <f t="shared" si="0"/>
         <v>13.875000000000011</v>
       </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
       <c r="L12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -930,6 +960,9 @@
         <f t="shared" si="0"/>
         <v>46.499999999999986</v>
       </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -957,6 +990,9 @@
         <f t="shared" si="0"/>
         <v>57.374999999999979</v>
       </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -984,6 +1020,9 @@
         <f t="shared" si="0"/>
         <v>66.374999999999972</v>
       </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1011,8 +1050,11 @@
         <f t="shared" si="0"/>
         <v>18.749999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1038,8 +1080,11 @@
         <f t="shared" si="0"/>
         <v>37.124999999999986</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1065,8 +1110,11 @@
         <f t="shared" si="0"/>
         <v>45.000000000000021</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1092,8 +1140,11 @@
         <f t="shared" si="0"/>
         <v>19.874999999999989</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1119,8 +1170,11 @@
         <f t="shared" si="0"/>
         <v>35.250000000000057</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1146,8 +1200,38 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12916666666666665</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>185.99999999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>69.749999999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5976BEFC-BFBF-4B11-9701-C7F66C1FD76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6DD20B-44B0-194D-B549-68D263A2261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27930" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -474,17 +474,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -554,6 +554,9 @@
         <f>F2*22.5</f>
         <v>45.000000000000021</v>
       </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
         <v>33.699999999999996</v>
@@ -578,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,6 +607,9 @@
         <f t="shared" ref="G3:G22" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
       <c r="L3">
         <f>L2+1</f>
         <v>2</v>
@@ -617,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -644,6 +650,9 @@
         <f t="shared" si="0"/>
         <v>54.374999999999986</v>
       </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
       <c r="L4">
         <f t="shared" ref="L4:L12" si="1">L3+1</f>
         <v>3</v>
@@ -657,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -683,6 +692,9 @@
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
       <c r="L5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -696,7 +708,7 @@
         <v>151.12500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -730,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -764,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -798,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -832,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -866,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -900,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -934,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -964,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1144,7 +1156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1231,10 +1243,10 @@
         <v>69.749999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6DD20B-44B0-194D-B549-68D263A2261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B6821C-70E0-464F-B447-B8712FB11D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,17 +474,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>33.699999999999996</v>
+        <v>35.083333333333329</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>758.25</v>
+        <v>789.375</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>621.7650000000001</v>
+        <v>647.28750000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G22" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G23" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D22" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D23" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E22" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E23" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F22" si="4">E5/60</f>
+        <f t="shared" ref="F5:F23" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -704,11 +704,11 @@
         <v>0.40902777777777788</v>
       </c>
       <c r="N5" s="7">
-        <f>SUM(G18:G21)</f>
-        <v>151.12500000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <f>SUM(G18:G22)</f>
+        <v>220.87500000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -741,8 +741,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="3">
+        <f>SUM(D23)</f>
+        <v>5.7638888888888795E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <f>SUM(G23)</f>
+        <v>31.124999999999943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -776,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -810,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -844,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -878,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -912,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -946,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -976,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1036,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1243,10 +1251,37 @@
         <v>69.749999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.82847222222222228</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.88611111111111107</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7638888888888795E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
+        <v>82.999999999999858</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3833333333333309</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>31.124999999999943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B6821C-70E0-464F-B447-B8712FB11D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555DF719-81C0-46DC-820C-993D7D72FFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>35.083333333333329</v>
+        <v>36.266666666666659</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>789.375</v>
+        <v>816</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>647.28750000000002</v>
+        <v>669.12</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G24" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D23" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D24" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E23" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E24" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F23" si="4">E5/60</f>
+        <f t="shared" ref="F5:F24" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -1276,6 +1276,33 @@
       <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>31.124999999999943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9305555555555491E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="3"/>
+        <v>70.999999999999915</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>1.183333333333332</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>26.624999999999972</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555DF719-81C0-46DC-820C-993D7D72FFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D222E-F277-44CB-8BC2-F36B3BCA1C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>36.266666666666659</v>
+        <v>37.749999999999993</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>816</v>
+        <v>849.375</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>669.12</v>
+        <v>696.48750000000007</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G24" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G25" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D24" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D25" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E24" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E25" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F24" si="4">E5/60</f>
+        <f t="shared" ref="F5:F25" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -742,12 +742,12 @@
         <v>5</v>
       </c>
       <c r="M6" s="3">
-        <f>SUM(D23)</f>
-        <v>5.7638888888888795E-2</v>
+        <f>SUM(D23:D25)</f>
+        <v>0.16874999999999984</v>
       </c>
       <c r="N6" s="7">
-        <f>SUM(G23)</f>
-        <v>31.124999999999943</v>
+        <f>SUM(G23:G25)</f>
+        <v>91.124999999999915</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1303,6 +1303,33 @@
       <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>26.624999999999972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.91041666666666665</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>33.375</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D222E-F277-44CB-8BC2-F36B3BCA1C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7384640A-DE2A-43B8-8CB1-9F2518E4BFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>37.749999999999993</v>
+        <v>42.833333333333329</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>849.375</v>
+        <v>963.75</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>696.48750000000007</v>
+        <v>790.27500000000009</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G25" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G26" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D25" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D26" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E25" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E26" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F25" si="4">E5/60</f>
+        <f t="shared" ref="F5:F26" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -742,12 +742,12 @@
         <v>5</v>
       </c>
       <c r="M6" s="3">
-        <f>SUM(D23:D25)</f>
-        <v>0.16874999999999984</v>
+        <f>SUM(D23:D26)</f>
+        <v>0.38055555555555537</v>
       </c>
       <c r="N6" s="7">
-        <f>SUM(G23:G25)</f>
-        <v>91.124999999999915</v>
+        <f>SUM(G23:G26)</f>
+        <v>205.49999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1330,6 +1330,33 @@
       <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>33.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21180555555555552</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="3"/>
+        <v>304.99999999999994</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>5.0833333333333321</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>114.37499999999997</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7384640A-DE2A-43B8-8CB1-9F2518E4BFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DD74B-44FB-F746-B272-38F530845DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,17 +474,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>42.833333333333329</v>
+        <v>43.266666666666659</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>963.75</v>
+        <v>973.5</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>790.27500000000009</v>
+        <v>798.2700000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G26" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G27" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D26" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D27" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E26" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E27" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F26" si="4">E5/60</f>
+        <f t="shared" ref="F5:F27" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -708,7 +708,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -750,7 +750,7 @@
         <v>205.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -886,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -920,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>69.749999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>31.124999999999943</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>26.624999999999972</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1359,10 +1359,37 @@
         <v>114.37499999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.74027777777777781</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8055555555555491E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="3"/>
+        <v>25.999999999999908</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43333333333333179</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>9.7499999999999645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DD74B-44FB-F746-B272-38F530845DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53540200-F09F-476B-B1FC-A6BFA42BD5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,17 +474,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>43.266666666666659</v>
+        <v>45.099999999999994</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>973.5</v>
+        <v>1014.75</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>798.2700000000001</v>
+        <v>832.09500000000003</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G27" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G28" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D27" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D28" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E27" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E28" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F27" si="4">E5/60</f>
+        <f t="shared" ref="F5:F28" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -708,7 +708,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -742,15 +742,15 @@
         <v>5</v>
       </c>
       <c r="M6" s="3">
-        <f>SUM(D23:D26)</f>
-        <v>0.38055555555555537</v>
+        <f>SUM(D23:D28)</f>
+        <v>0.47499999999999981</v>
       </c>
       <c r="N6" s="7">
-        <f>SUM(G23:G26)</f>
-        <v>205.49999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <f>SUM(G23:G28)</f>
+        <v>256.49999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -886,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -920,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>69.749999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>31.124999999999943</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>26.624999999999972</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>33.375</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>114.37499999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1386,10 +1386,37 @@
         <v>9.7499999999999645</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="2"/>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="3"/>
+        <v>110.00000000000009</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8333333333333348</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>41.250000000000036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53540200-F09F-476B-B1FC-A6BFA42BD5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F2B52-9B39-E442-8C72-FB55DD2FC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -474,17 +474,17 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -708,7 +708,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -750,7 +750,7 @@
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -886,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -920,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1250,8 +1250,11 @@
         <f t="shared" si="0"/>
         <v>69.749999999999986</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1277,8 +1280,11 @@
         <f t="shared" si="0"/>
         <v>31.124999999999943</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1304,8 +1310,11 @@
         <f t="shared" si="0"/>
         <v>26.624999999999972</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1331,8 +1340,11 @@
         <f t="shared" si="0"/>
         <v>33.375</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1358,8 +1370,11 @@
         <f t="shared" si="0"/>
         <v>114.37499999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1385,8 +1400,11 @@
         <f t="shared" si="0"/>
         <v>9.7499999999999645</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -1412,11 +1430,14 @@
         <f t="shared" si="0"/>
         <v>41.250000000000036</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F2B52-9B39-E442-8C72-FB55DD2FC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5BF714-8184-4F5C-9B07-F6337F7F243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,20 +471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>45.099999999999994</v>
+        <v>53.18333333333333</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1014.75</v>
+        <v>1196.625</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>832.09500000000003</v>
+        <v>981.23250000000007</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G28" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G32" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D28" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D32" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E28" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E32" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F28" si="4">E5/60</f>
+        <f t="shared" ref="F5:F32" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -708,7 +708,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -750,7 +750,7 @@
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -783,8 +783,16 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="3">
+        <f>SUM(D29:D32)</f>
+        <v>0.33680555555555552</v>
+      </c>
+      <c r="N7" s="7">
+        <f>SUM(G29:G32)</f>
+        <v>181.87499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -818,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -852,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -886,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -920,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -954,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -984,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1194,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -1434,11 +1442,116 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="2"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="3"/>
+        <v>104.99999999999994</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7499999999999991</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>39.374999999999979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0555555555555558E-2</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.59375</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17638888888888887</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="3"/>
+        <v>253.99999999999997</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>4.2333333333333325</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>95.249999999999986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.87291666666666667</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="3"/>
+        <v>82.000000000000028</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3666666666666671</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>30.750000000000011</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5BF714-8184-4F5C-9B07-F6337F7F243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53097E5B-91C7-4B6E-90B0-B5A279735287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="870" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>53.18333333333333</v>
+        <v>53.783333333333331</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1196.625</v>
+        <v>1210.125</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>981.23250000000007</v>
+        <v>992.30250000000012</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G32" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G33" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D32" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D33" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E32" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E33" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F32" si="4">E5/60</f>
+        <f t="shared" ref="F5:F33" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -784,12 +784,12 @@
         <v>6</v>
       </c>
       <c r="M7" s="3">
-        <f>SUM(D29:D32)</f>
-        <v>0.33680555555555552</v>
+        <f>SUM(D29:D33)</f>
+        <v>0.36180555555555555</v>
       </c>
       <c r="N7" s="7">
-        <f>SUM(G29:G32)</f>
-        <v>181.87499999999997</v>
+        <f>SUM(G29:G33)</f>
+        <v>195.37499999999997</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,34 @@
         <v>30.750000000000011</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="3"/>
+        <v>36.000000000000028</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000042</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>13.500000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53097E5B-91C7-4B6E-90B0-B5A279735287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D904311-B64E-4CFB-9549-4BB907FDE1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>53.783333333333331</v>
+        <v>54.949999999999996</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1210.125</v>
+        <v>1236.375</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>992.30250000000012</v>
+        <v>1013.8275000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G33" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G34" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D33" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D34" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E33" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E34" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F33" si="4">E5/60</f>
+        <f t="shared" ref="F5:F34" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -825,6 +825,14 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="M8" s="3">
+        <f>SUM(D34)</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <f>SUM(G34)</f>
+        <v>26.249999999999968</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1498,7 +1506,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B31" s="9">
         <v>0.41736111111111113</v>
@@ -1525,7 +1533,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B32" s="9">
         <v>0.81597222222222221</v>
@@ -1552,7 +1560,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45600</v>
+        <v>45599</v>
       </c>
       <c r="B33" s="9">
         <v>0.94444444444444442</v>
@@ -1577,8 +1585,35 @@
         <v>13.500000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="3"/>
+        <v>69.999999999999915</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>26.249999999999968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D904311-B64E-4CFB-9549-4BB907FDE1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC38795-9FB0-4BC4-A79D-85451B10E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>54.949999999999996</v>
+        <v>57.833333333333329</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1236.375</v>
+        <v>1301.25</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1013.8275000000001</v>
+        <v>1067.0250000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G34" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G36" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D34" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D36" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E34" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E36" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F34" si="4">E5/60</f>
+        <f t="shared" ref="F5:F36" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -826,12 +826,12 @@
         <v>7</v>
       </c>
       <c r="M8" s="3">
-        <f>SUM(D34)</f>
-        <v>4.8611111111111049E-2</v>
+        <f>SUM(D34:D36)</f>
+        <v>0.16874999999999996</v>
       </c>
       <c r="N8" s="7">
-        <f>SUM(G34)</f>
-        <v>26.249999999999968</v>
+        <f>SUM(G34:G36)</f>
+        <v>91.124999999999972</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1610,6 +1610,60 @@
       <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>26.249999999999968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="2"/>
+        <v>8.680555555555558E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="3"/>
+        <v>125.00000000000003</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0833333333333339</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>46.875000000000014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.94722222222222219</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.98055555555555551</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="3"/>
+        <v>47.999999999999986</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999971</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>17.999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC38795-9FB0-4BC4-A79D-85451B10E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D0528-7AA0-4509-B007-E73CB6858158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>57.833333333333329</v>
+        <v>60.11666666666666</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1301.25</v>
+        <v>1352.625</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1067.0250000000001</v>
+        <v>1109.1525000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G36" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G39" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D36" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D39" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E36" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E39" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F36" si="4">E5/60</f>
+        <f t="shared" ref="F5:F39" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -826,12 +826,12 @@
         <v>7</v>
       </c>
       <c r="M8" s="3">
-        <f>SUM(D34:D36)</f>
-        <v>0.16874999999999996</v>
+        <f>SUM(D34:D39)</f>
+        <v>0.26388888888888895</v>
       </c>
       <c r="N8" s="7">
-        <f>SUM(G34:G36)</f>
-        <v>91.124999999999972</v>
+        <f>SUM(G34:G39)</f>
+        <v>142.50000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1664,6 +1664,87 @@
       <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>17.999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="3"/>
+        <v>60.000000000000107</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>22.500000000000039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.89930555555555558</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="2"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="3"/>
+        <v>40.000000000000014</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>15.000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="3"/>
+        <v>37.000000000000028</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="4"/>
+        <v>0.61666666666666714</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>13.875000000000011</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698D0528-7AA0-4509-B007-E73CB6858158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB59DC-C9E0-4EBE-83B2-492BD5CFBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>60.11666666666666</v>
+        <v>62.066666666666656</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1352.625</v>
+        <v>1396.5</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1109.1525000000001</v>
+        <v>1145.1300000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G39" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G40" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D39" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D40" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E39" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E40" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F39" si="4">E5/60</f>
+        <f t="shared" ref="F5:F40" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -826,12 +826,12 @@
         <v>7</v>
       </c>
       <c r="M8" s="3">
-        <f>SUM(D34:D39)</f>
-        <v>0.26388888888888895</v>
+        <f>SUM(D34:D40)</f>
+        <v>0.34513888888888888</v>
       </c>
       <c r="N8" s="7">
-        <f>SUM(G34:G39)</f>
-        <v>142.50000000000003</v>
+        <f>SUM(G34:G40)</f>
+        <v>186.375</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1745,6 +1745,33 @@
       <c r="G39" s="7">
         <f t="shared" si="0"/>
         <v>13.875000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1249999999999933E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="3"/>
+        <v>116.9999999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9499999999999984</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>43.874999999999964</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB59DC-C9E0-4EBE-83B2-492BD5CFBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620D596-411B-4D3C-9669-4CD9A5318F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="840" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="795" yWindow="1050" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>62.066666666666656</v>
+        <v>64.199999999999989</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1396.5</v>
+        <v>1444.5</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1145.1300000000001</v>
+        <v>1184.49</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G40" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G41" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D40" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D41" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E40" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E41" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F40" si="4">E5/60</f>
+        <f t="shared" ref="F5:F41" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -826,12 +826,12 @@
         <v>7</v>
       </c>
       <c r="M8" s="3">
-        <f>SUM(D34:D40)</f>
-        <v>0.34513888888888888</v>
+        <f>SUM(D34:D41)</f>
+        <v>0.43402777777777779</v>
       </c>
       <c r="N8" s="7">
-        <f>SUM(G34:G40)</f>
-        <v>186.375</v>
+        <f>SUM(G34:G41)</f>
+        <v>234.375</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1772,6 +1772,33 @@
       <c r="G40" s="7">
         <f t="shared" si="0"/>
         <v>43.874999999999964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="3"/>
+        <v>128.00000000000003</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="4"/>
+        <v>2.1333333333333337</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>48.000000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6620D596-411B-4D3C-9669-4CD9A5318F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB371377-4571-47C0-A782-E901A0C41261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="1050" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>64.199999999999989</v>
+        <v>67.916666666666657</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1444.5</v>
+        <v>1528.125</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1184.49</v>
+        <v>1253.0625</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G41" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G42" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D41" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D42" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E41" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E42" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F41" si="4">E5/60</f>
+        <f t="shared" ref="F5:F42" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -1799,6 +1799,41 @@
       <c r="G41" s="7">
         <f t="shared" si="0"/>
         <v>48.000000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15486111111111117</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="3"/>
+        <v>223.00000000000009</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="4"/>
+        <v>3.7166666666666681</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>83.625000000000028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0.62986111111111109</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB371377-4571-47C0-A782-E901A0C41261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B53FB-78ED-44A0-8BE9-4E5FFC364F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="1050" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>67.916666666666657</v>
+        <v>71.166666666666657</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1528.125</v>
+        <v>1601.25</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1253.0625</v>
+        <v>1313.0250000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G42" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G43" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D42" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D43" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E42" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E43" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F42" si="4">E5/60</f>
+        <f t="shared" ref="F5:F43" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -867,6 +867,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="M9" s="3">
+        <f xml:space="preserve"> SUM(D42:D43)</f>
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="N9" s="7">
+        <f xml:space="preserve"> SUM(G42:G43)</f>
+        <v>156.75</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1834,6 +1842,25 @@
       </c>
       <c r="B43" s="9">
         <v>0.62986111111111109</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.76527777777777772</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="3"/>
+        <v>194.99999999999994</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="4"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>73.124999999999986</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B53FB-78ED-44A0-8BE9-4E5FFC364F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B228D57-FF45-4555-8770-B344C7535CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="1050" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1863,8 +1863,16 @@
         <v>73.124999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.85277777777777775</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B228D57-FF45-4555-8770-B344C7535CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD5BADB-3A87-49E9-B5C0-CF2CFA023FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="1050" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>71.166666666666657</v>
+        <v>72.61666666666666</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1601.25</v>
+        <v>1633.875</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1313.0250000000001</v>
+        <v>1339.7775000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G43" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G44" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D43" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D44" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E43" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E44" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F43" si="4">E5/60</f>
+        <f t="shared" ref="F5:F44" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -868,12 +868,12 @@
         <v>8</v>
       </c>
       <c r="M9" s="3">
-        <f xml:space="preserve"> SUM(D42:D43)</f>
-        <v>0.2902777777777778</v>
+        <f xml:space="preserve"> SUM(D42:D44)</f>
+        <v>0.35069444444444448</v>
       </c>
       <c r="N9" s="7">
-        <f xml:space="preserve"> SUM(G42:G43)</f>
-        <v>156.75</v>
+        <f xml:space="preserve"> SUM(G42:G44)</f>
+        <v>189.375</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1869,6 +1869,25 @@
       </c>
       <c r="B44" s="9">
         <v>0.85277777777777775</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0416666666666674E-2</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="3"/>
+        <v>87.000000000000014</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>32.625000000000007</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD5BADB-3A87-49E9-B5C0-CF2CFA023FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FEAEAA-C733-4B94-8C81-34DEE7435757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1050" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>72.61666666666666</v>
+        <v>74.533333333333331</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1633.875</v>
+        <v>1677</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1339.7775000000001</v>
+        <v>1375.14</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G44" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G45" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D44" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D45" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E44" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E45" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F44" si="4">E5/60</f>
+        <f t="shared" ref="F5:F45" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -868,12 +868,12 @@
         <v>8</v>
       </c>
       <c r="M9" s="3">
-        <f xml:space="preserve"> SUM(D42:D44)</f>
-        <v>0.35069444444444448</v>
+        <f xml:space="preserve"> SUM(D42:D45)</f>
+        <v>0.43055555555555564</v>
       </c>
       <c r="N9" s="7">
-        <f xml:space="preserve"> SUM(G42:G44)</f>
-        <v>189.375</v>
+        <f xml:space="preserve"> SUM(G42:G45)</f>
+        <v>232.50000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1888,6 +1888,33 @@
       <c r="G44" s="7">
         <f t="shared" si="0"/>
         <v>32.625000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="2"/>
+        <v>7.986111111111116E-2</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="3"/>
+        <v>115.00000000000007</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9166666666666679</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>43.125000000000028</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FEAEAA-C733-4B94-8C81-34DEE7435757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3962D-6EC1-494B-A7F6-289141AAB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25560" windowHeight="14430" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="14440" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,18 +473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>74.533333333333331</v>
+        <v>77.7</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1677</v>
+        <v>1748.25</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1375.14</v>
+        <v>1433.5650000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G45" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G46" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D45" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D46" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E45" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E46" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F45" si="4">E5/60</f>
+        <f t="shared" ref="F5:F46" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -708,7 +708,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -750,7 +750,7 @@
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -792,7 +792,7 @@
         <v>195.37499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -834,7 +834,7 @@
         <v>234.375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -876,7 +876,7 @@
         <v>232.50000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45598</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>39.374999999999979</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45598</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45599</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>95.249999999999986</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45599</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>30.750000000000011</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45599</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>13.500000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45601</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>26.249999999999968</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45602</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>46.875000000000014</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45602</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>17.999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45603</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>22.500000000000039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45603</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>15.000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>13.875000000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>43.874999999999964</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>48.000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45607</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>83.625000000000028</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>73.124999999999986</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>32.625000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45610</v>
       </c>
@@ -1917,7 +1917,34 @@
         <v>43.125000000000028</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="3"/>
+        <v>189.99999999999997</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>71.249999999999986</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3962D-6EC1-494B-A7F6-289141AAB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D46BB-84E6-4365-AFEF-7C16A563C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="14440" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,18 +473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -559,15 +559,15 @@
       </c>
       <c r="I2" s="5">
         <f>SUM(F:F)</f>
-        <v>77.7</v>
+        <v>79.016666666666666</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(G:G)</f>
-        <v>1748.25</v>
+        <v>1777.875</v>
       </c>
       <c r="K2" s="7">
         <f>J2*(1-0.18)</f>
-        <v>1433.5650000000001</v>
+        <v>1457.8575000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -581,7 +581,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G46" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G47" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -623,7 +623,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -666,7 +666,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -677,15 +677,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D46" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D47" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E46" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E47" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F46" si="4">E5/60</f>
+        <f t="shared" ref="F5:F47" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="7">
@@ -708,7 +708,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -750,7 +750,7 @@
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -792,7 +792,7 @@
         <v>195.37499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -834,7 +834,7 @@
         <v>234.375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -868,15 +868,15 @@
         <v>8</v>
       </c>
       <c r="M9" s="3">
-        <f xml:space="preserve"> SUM(D42:D45)</f>
-        <v>0.43055555555555564</v>
+        <f xml:space="preserve"> SUM(D42:D47)</f>
+        <v>0.61736111111111114</v>
       </c>
       <c r="N9" s="7">
-        <f xml:space="preserve"> SUM(G42:G45)</f>
-        <v>232.50000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <f xml:space="preserve"> SUM(G42:G47)</f>
+        <v>333.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45575</v>
       </c>
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45577</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45598</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>39.374999999999979</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45598</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45599</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>95.249999999999986</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45599</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>30.750000000000011</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45599</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>13.500000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45601</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>26.249999999999968</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45602</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>46.875000000000014</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45602</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>17.999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45603</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>22.500000000000039</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45603</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>15.000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>13.875000000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>43.874999999999964</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>48.000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45607</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>83.625000000000028</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>73.124999999999986</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>32.625000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45610</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>43.125000000000028</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45611</v>
       </c>
@@ -1944,7 +1944,34 @@
         <v>71.249999999999986</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45613</v>
+      </c>
+      <c r="B47" s="9">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="2"/>
+        <v>5.4861111111111138E-2</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="3"/>
+        <v>79.000000000000043</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3166666666666673</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>29.625000000000014</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D46BB-84E6-4365-AFEF-7C16A563C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B3E80-0A09-B24B-ADC2-FB51B8128361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="15200" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -87,8 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,17 +127,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,18 +473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -528,44 +528,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>0.625</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>0.70833333333333337</v>
       </c>
       <c r="D2" s="3">
         <f>C2-B2</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>D2*1440</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>E2/60</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>F2*22.5</f>
         <v>45.000000000000021</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>SUM(F:F)</f>
         <v>79.016666666666666</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUM(G:G)</f>
         <v>1777.875</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>J2*(1-0.18)</f>
         <v>1457.8575000000001</v>
       </c>
@@ -576,34 +576,34 @@
         <f>D2</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>G2</f>
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>0.60416666666666663</v>
       </c>
       <c r="D3" s="3">
         <f>C3-B3</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>D3*1440</f>
         <v>90</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>E3/60</f>
         <v>1.5</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G47" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
@@ -618,35 +618,35 @@
         <f>SUM(D3:D9)</f>
         <v>0.40625000000000006</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f>SUM(G3:G9)</f>
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>0.74652777777777779</v>
       </c>
       <c r="D4" s="3">
         <f>C4-B4</f>
         <v>0.10069444444444442</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>D4*1440</f>
         <v>144.99999999999997</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>E4/60</f>
         <v>2.4166666666666661</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>54.374999999999986</v>
       </c>
@@ -661,34 +661,34 @@
         <f>SUM(D10:D17)</f>
         <v>0.50555555555555531</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f>SUM(G10:G17)</f>
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D47" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E47" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F47" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
@@ -703,34 +703,34 @@
         <f>SUM(D18:D22)</f>
         <v>0.40902777777777788</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f>SUM(G18:G22)</f>
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>0.49652777777777779</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>3.8194444444444475E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="3"/>
         <v>55.000000000000043</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="4"/>
         <v>0.91666666666666741</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>20.625000000000018</v>
       </c>
@@ -745,34 +745,34 @@
         <f>SUM(D23:D28)</f>
         <v>0.47499999999999981</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f>SUM(G23:G28)</f>
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>0.61111111111111116</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="3"/>
         <v>80.000000000000028</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="4"/>
         <v>1.3333333333333337</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>30.000000000000007</v>
       </c>
@@ -787,34 +787,34 @@
         <f>SUM(D29:D33)</f>
         <v>0.36180555555555555</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f>SUM(G29:G33)</f>
         <v>195.37499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>0.57986111111111116</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>6.5972222222222321E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="3"/>
         <v>95.000000000000142</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="4"/>
         <v>1.5833333333333357</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>35.625000000000057</v>
       </c>
@@ -829,34 +829,34 @@
         <f>SUM(D34:D41)</f>
         <v>0.43402777777777779</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f>SUM(G34:G41)</f>
         <v>234.375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>0.57986111111111116</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>0.62152777777777779</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="3"/>
         <v>59.999999999999943</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="4"/>
         <v>0.999999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
@@ -871,34 +871,34 @@
         <f xml:space="preserve"> SUM(D42:D47)</f>
         <v>0.61736111111111114</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f xml:space="preserve"> SUM(G42:G47)</f>
         <v>333.375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>0.79027777777777775</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>1.9444444444444375E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="3"/>
         <v>27.999999999999901</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="4"/>
         <v>0.46666666666666501</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>10.499999999999963</v>
       </c>
@@ -910,29 +910,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>45575</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>0.875</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="3"/>
         <v>59.999999999999943</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="4"/>
         <v>0.999999999999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
@@ -944,29 +944,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>0.49513888888888891</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
         <v>2.5694444444444464E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="3"/>
         <v>37.000000000000028</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="4"/>
         <v>0.61666666666666714</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>13.875000000000011</v>
       </c>
@@ -978,29 +978,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>0.48541666666666666</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>0.57152777777777775</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>8.6111111111111083E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="3"/>
         <v>123.99999999999996</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="4"/>
         <v>2.066666666666666</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>46.499999999999986</v>
       </c>
@@ -1008,29 +1008,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>45577</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>0.62708333333333333</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>0.73333333333333328</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
         <v>0.10624999999999996</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="3"/>
         <v>152.99999999999994</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="4"/>
         <v>2.5499999999999989</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>57.374999999999979</v>
       </c>
@@ -1038,29 +1038,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>0.54513888888888884</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
         <v>0.12291666666666662</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f t="shared" si="3"/>
         <v>176.99999999999994</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" si="4"/>
         <v>2.9499999999999988</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>66.374999999999972</v>
       </c>
@@ -1068,29 +1068,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="8">
         <v>0.58611111111111114</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>0.62083333333333335</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="2"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="3"/>
         <v>49.999999999999986</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="4"/>
         <v>0.83333333333333315</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>18.749999999999996</v>
       </c>
@@ -1098,29 +1098,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.91388888888888886</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>0.98263888888888884</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>6.8749999999999978E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="3"/>
         <v>98.999999999999972</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f t="shared" si="4"/>
         <v>1.6499999999999995</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>37.124999999999986</v>
       </c>
@@ -1128,29 +1128,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.81597222222222221</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.89930555555555558</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="3"/>
         <v>120.00000000000006</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="4"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>45.000000000000021</v>
       </c>
@@ -1158,29 +1158,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>0.98402777777777772</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>1.0208333333333333</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>3.6805555555555536E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="3"/>
         <v>52.999999999999972</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f t="shared" si="4"/>
         <v>0.88333333333333286</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f t="shared" si="0"/>
         <v>19.874999999999989</v>
       </c>
@@ -1188,29 +1188,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>0.92013888888888884</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>0.98541666666666672</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="2"/>
         <v>6.5277777777777879E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="3"/>
         <v>94.000000000000142</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f t="shared" si="4"/>
         <v>1.5666666666666691</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f t="shared" si="0"/>
         <v>35.250000000000057</v>
       </c>
@@ -1218,29 +1218,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.67291666666666672</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0.76736111111111116</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="2"/>
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f t="shared" si="4"/>
         <v>2.2666666666666666</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -1248,29 +1248,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0.83472222222222225</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>0.96388888888888891</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="2"/>
         <v>0.12916666666666665</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="3"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f t="shared" si="4"/>
         <v>3.0999999999999996</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f t="shared" si="0"/>
         <v>69.749999999999986</v>
       </c>
@@ -1278,29 +1278,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>0.82847222222222228</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>0.88611111111111107</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>5.7638888888888795E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="3"/>
         <v>82.999999999999858</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="4"/>
         <v>1.3833333333333309</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>31.124999999999943</v>
       </c>
@@ -1308,29 +1308,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>0.58125000000000004</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>0.63055555555555554</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="2"/>
         <v>4.9305555555555491E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="3"/>
         <v>70.999999999999915</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f t="shared" si="4"/>
         <v>1.183333333333332</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f t="shared" si="0"/>
         <v>26.624999999999972</v>
       </c>
@@ -1338,29 +1338,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>0.84861111111111109</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>0.91041666666666665</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
         <v>6.1805555555555558E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f t="shared" si="4"/>
         <v>1.4833333333333334</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f t="shared" si="0"/>
         <v>33.375</v>
       </c>
@@ -1368,29 +1368,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>0.48888888888888887</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>0.7006944444444444</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="2"/>
         <v>0.21180555555555552</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="3"/>
         <v>304.99999999999994</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f t="shared" si="4"/>
         <v>5.0833333333333321</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <f t="shared" si="0"/>
         <v>114.37499999999997</v>
       </c>
@@ -1398,29 +1398,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="8">
         <v>0.74027777777777781</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>0.7583333333333333</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="2"/>
         <v>1.8055555555555491E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="3"/>
         <v>25.999999999999908</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="4"/>
         <v>0.43333333333333179</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f t="shared" si="0"/>
         <v>9.7499999999999645</v>
       </c>
@@ -1428,29 +1428,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>0.91736111111111107</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>0.99375000000000002</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="2"/>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="3"/>
         <v>110.00000000000009</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="4"/>
         <v>1.8333333333333348</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <f t="shared" si="0"/>
         <v>41.250000000000036</v>
       </c>
@@ -1458,520 +1458,590 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45598</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="8">
         <v>0.46875</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>0.54166666666666663</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="2"/>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="3"/>
         <v>104.99999999999994</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f t="shared" si="4"/>
         <v>1.7499999999999991</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <f t="shared" si="0"/>
         <v>39.374999999999979</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45598</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="8">
         <v>0.61805555555555558</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="2"/>
         <v>3.0555555555555558E-2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f t="shared" si="4"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45599</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>0.59375</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="2"/>
         <v>0.17638888888888887</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="3"/>
         <v>253.99999999999997</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="4"/>
         <v>4.2333333333333325</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f t="shared" si="0"/>
         <v>95.249999999999986</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45599</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>0.81597222222222221</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>0.87291666666666667</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="2"/>
         <v>5.6944444444444464E-2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="3"/>
         <v>82.000000000000028</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="4"/>
         <v>1.3666666666666671</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <f t="shared" si="0"/>
         <v>30.750000000000011</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45599</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>0.94444444444444442</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>0.96944444444444444</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="2"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="3"/>
         <v>36.000000000000028</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="4"/>
         <v>0.60000000000000042</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <f t="shared" si="0"/>
         <v>13.500000000000009</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45601</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="8">
         <v>0.94444444444444442</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="2"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="3"/>
         <v>69.999999999999915</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="4"/>
         <v>1.1666666666666652</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <f t="shared" si="0"/>
         <v>26.249999999999968</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45602</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>0.81944444444444442</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="8">
         <v>0.90625</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="2"/>
         <v>8.680555555555558E-2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="3"/>
         <v>125.00000000000003</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f t="shared" si="4"/>
         <v>2.0833333333333339</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <f t="shared" si="0"/>
         <v>46.875000000000014</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45602</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="8">
         <v>0.94722222222222219</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>0.98055555555555551</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="2"/>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="3"/>
         <v>47.999999999999986</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="4"/>
         <v>0.79999999999999971</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <f t="shared" si="0"/>
         <v>17.999999999999993</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45603</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="8">
         <v>0.75694444444444442</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="8">
         <v>0.79861111111111116</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="2"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="3"/>
         <v>60.000000000000107</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="4"/>
         <v>1.0000000000000018</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <f t="shared" si="0"/>
         <v>22.500000000000039</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45603</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="8">
         <v>0.89930555555555558</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="8">
         <v>0.92708333333333337</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="2"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f t="shared" si="3"/>
         <v>40.000000000000014</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" si="4"/>
         <v>0.66666666666666685</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <f t="shared" si="0"/>
         <v>15.000000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="8">
         <v>0.54513888888888884</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>0.5708333333333333</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="2"/>
         <v>2.5694444444444464E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <f t="shared" si="3"/>
         <v>37.000000000000028</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <f t="shared" si="4"/>
         <v>0.61666666666666714</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <f t="shared" si="0"/>
         <v>13.875000000000011</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>0.77638888888888891</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>0.85763888888888884</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="2"/>
         <v>8.1249999999999933E-2</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="3"/>
         <v>116.9999999999999</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f t="shared" si="4"/>
         <v>1.9499999999999984</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <f t="shared" si="0"/>
         <v>43.874999999999964</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>0.84027777777777779</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>0.9291666666666667</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="2"/>
         <v>8.8888888888888906E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <f t="shared" si="3"/>
         <v>128.00000000000003</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <f t="shared" si="4"/>
         <v>2.1333333333333337</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <f t="shared" si="0"/>
         <v>48.000000000000007</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45607</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="8">
         <v>0.45694444444444443</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>0.6118055555555556</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="2"/>
         <v>0.15486111111111117</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <f t="shared" si="3"/>
         <v>223.00000000000009</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f t="shared" si="4"/>
         <v>3.7166666666666681</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <f t="shared" si="0"/>
         <v>83.625000000000028</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>0.62986111111111109</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>0.76527777777777772</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="2"/>
         <v>0.13541666666666663</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <f t="shared" si="3"/>
         <v>194.99999999999994</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <f t="shared" si="4"/>
         <v>3.2499999999999991</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <f t="shared" si="0"/>
         <v>73.124999999999986</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>0.85277777777777775</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>0.91319444444444442</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="2"/>
         <v>6.0416666666666674E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <f t="shared" si="3"/>
         <v>87.000000000000014</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f t="shared" si="4"/>
         <v>1.4500000000000002</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <f t="shared" si="0"/>
         <v>32.625000000000007</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45610</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>0.91319444444444442</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>0.99305555555555558</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="2"/>
         <v>7.986111111111116E-2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <f t="shared" si="3"/>
         <v>115.00000000000007</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f t="shared" si="4"/>
         <v>1.9166666666666679</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <f t="shared" si="0"/>
         <v>43.125000000000028</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45611</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>0.50694444444444442</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>0.63888888888888884</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="2"/>
         <v>0.13194444444444442</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="3"/>
         <v>189.99999999999997</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f t="shared" si="4"/>
         <v>3.1666666666666661</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <f t="shared" si="0"/>
         <v>71.249999999999986</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45613</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>0.72569444444444442</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>0.78055555555555556</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="2"/>
         <v>5.4861111111111138E-2</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="3"/>
         <v>79.000000000000043</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f t="shared" si="4"/>
         <v>1.3166666666666673</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <f t="shared" si="0"/>
         <v>29.625000000000014</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45614</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B3E80-0A09-B24B-ADC2-FB51B8128361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6962A-8F50-4F13-9273-4BEC40B27EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="15200" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="390" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,20 +123,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,71 +481,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.625</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.70833333333333337</v>
       </c>
       <c r="D2" s="3">
@@ -550,7 +560,7 @@
         <f>E2/60</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>F2*22.5</f>
         <v>45.000000000000021</v>
       </c>
@@ -559,15 +569,15 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(F:F)</f>
-        <v>79.016666666666666</v>
-      </c>
-      <c r="J2" s="6">
+        <v>82.600000000000009</v>
+      </c>
+      <c r="J2" s="5">
         <f>SUM(G:G)</f>
-        <v>1777.875</v>
-      </c>
-      <c r="K2" s="6">
+        <v>1858.5</v>
+      </c>
+      <c r="K2" s="5">
         <f>J2*(1-0.18)</f>
-        <v>1457.8575000000001</v>
+        <v>1523.97</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -576,19 +586,19 @@
         <f>D2</f>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <f>G2</f>
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.60416666666666663</v>
       </c>
       <c r="D3" s="3">
@@ -603,8 +613,8 @@
         <f>E3/60</f>
         <v>1.5</v>
       </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G47" si="0">F3*22.5</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G49" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -618,20 +628,20 @@
         <f>SUM(D3:D9)</f>
         <v>0.40625000000000006</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <f>SUM(G3:G9)</f>
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.74652777777777779</v>
       </c>
       <c r="D4" s="3">
@@ -646,7 +656,7 @@
         <f>E4/60</f>
         <v>2.4166666666666661</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>54.374999999999986</v>
       </c>
@@ -661,34 +671,34 @@
         <f>SUM(D10:D17)</f>
         <v>0.50555555555555531</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f>SUM(G10:G17)</f>
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D47" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D49" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E47" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E49" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F47" si="4">E5/60</f>
+        <f t="shared" ref="F5:F49" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
@@ -703,19 +713,19 @@
         <f>SUM(D18:D22)</f>
         <v>0.40902777777777788</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f>SUM(G18:G22)</f>
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.49652777777777779</v>
       </c>
       <c r="D6" s="3">
@@ -730,7 +740,7 @@
         <f t="shared" si="4"/>
         <v>0.91666666666666741</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>20.625000000000018</v>
       </c>
@@ -745,19 +755,19 @@
         <f>SUM(D23:D28)</f>
         <v>0.47499999999999981</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f>SUM(G23:G28)</f>
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.61111111111111116</v>
       </c>
       <c r="D7" s="3">
@@ -772,7 +782,7 @@
         <f t="shared" si="4"/>
         <v>1.3333333333333337</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>30.000000000000007</v>
       </c>
@@ -787,19 +797,19 @@
         <f>SUM(D29:D33)</f>
         <v>0.36180555555555555</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <f>SUM(G29:G33)</f>
         <v>195.37499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.51388888888888884</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.57986111111111116</v>
       </c>
       <c r="D8" s="3">
@@ -814,7 +824,7 @@
         <f t="shared" si="4"/>
         <v>1.5833333333333357</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>35.625000000000057</v>
       </c>
@@ -829,19 +839,19 @@
         <f>SUM(D34:D41)</f>
         <v>0.43402777777777779</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <f>SUM(G34:G41)</f>
         <v>234.375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.57986111111111116</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.62152777777777779</v>
       </c>
       <c r="D9" s="3">
@@ -856,7 +866,7 @@
         <f t="shared" si="4"/>
         <v>0.999999999999999</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
@@ -871,19 +881,19 @@
         <f xml:space="preserve"> SUM(D42:D47)</f>
         <v>0.61736111111111114</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <f xml:space="preserve"> SUM(G42:G47)</f>
         <v>333.375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.79027777777777775</v>
       </c>
       <c r="D10" s="3">
@@ -898,7 +908,7 @@
         <f t="shared" si="4"/>
         <v>0.46666666666666501</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>10.499999999999963</v>
       </c>
@@ -909,15 +919,23 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="M10" s="3">
+        <f>SUM(D48:D49)</f>
+        <v>0.14930555555555558</v>
+      </c>
+      <c r="N10" s="5">
+        <f>SUM(G48:G49)</f>
+        <v>80.625000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>45575</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.875</v>
       </c>
       <c r="D11" s="3">
@@ -932,7 +950,7 @@
         <f t="shared" si="4"/>
         <v>0.999999999999999</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
@@ -944,14 +962,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.49513888888888891</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.52083333333333337</v>
       </c>
       <c r="D12" s="3">
@@ -966,7 +984,7 @@
         <f t="shared" si="4"/>
         <v>0.61666666666666714</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>13.875000000000011</v>
       </c>
@@ -978,14 +996,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.48541666666666666</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>0.57152777777777775</v>
       </c>
       <c r="D13" s="3">
@@ -1000,7 +1018,7 @@
         <f t="shared" si="4"/>
         <v>2.066666666666666</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>46.499999999999986</v>
       </c>
@@ -1008,14 +1026,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>45577</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.62708333333333333</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.73333333333333328</v>
       </c>
       <c r="D14" s="3">
@@ -1030,7 +1048,7 @@
         <f t="shared" si="4"/>
         <v>2.5499999999999989</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>57.374999999999979</v>
       </c>
@@ -1038,14 +1056,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.54513888888888884</v>
       </c>
       <c r="D15" s="3">
@@ -1060,7 +1078,7 @@
         <f t="shared" si="4"/>
         <v>2.9499999999999988</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>66.374999999999972</v>
       </c>
@@ -1068,14 +1086,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.58611111111111114</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.62083333333333335</v>
       </c>
       <c r="D16" s="3">
@@ -1090,7 +1108,7 @@
         <f t="shared" si="4"/>
         <v>0.83333333333333315</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>18.749999999999996</v>
       </c>
@@ -1098,14 +1116,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0.91388888888888886</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>0.98263888888888884</v>
       </c>
       <c r="D17" s="3">
@@ -1120,7 +1138,7 @@
         <f t="shared" si="4"/>
         <v>1.6499999999999995</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>37.124999999999986</v>
       </c>
@@ -1128,14 +1146,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>0.81597222222222221</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>0.89930555555555558</v>
       </c>
       <c r="D18" s="3">
@@ -1150,7 +1168,7 @@
         <f t="shared" si="4"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>45.000000000000021</v>
       </c>
@@ -1158,14 +1176,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0.98402777777777772</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1.0208333333333333</v>
       </c>
       <c r="D19" s="3">
@@ -1180,7 +1198,7 @@
         <f t="shared" si="4"/>
         <v>0.88333333333333286</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>19.874999999999989</v>
       </c>
@@ -1188,14 +1206,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0.92013888888888884</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>0.98541666666666672</v>
       </c>
       <c r="D20" s="3">
@@ -1210,7 +1228,7 @@
         <f t="shared" si="4"/>
         <v>1.5666666666666691</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>35.250000000000057</v>
       </c>
@@ -1218,14 +1236,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.67291666666666672</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0.76736111111111116</v>
       </c>
       <c r="D21" s="3">
@@ -1240,7 +1258,7 @@
         <f t="shared" si="4"/>
         <v>2.2666666666666666</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -1248,14 +1266,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0.83472222222222225</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>0.96388888888888891</v>
       </c>
       <c r="D22" s="3">
@@ -1270,7 +1288,7 @@
         <f t="shared" si="4"/>
         <v>3.0999999999999996</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>69.749999999999986</v>
       </c>
@@ -1278,14 +1296,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>0.82847222222222228</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>0.88611111111111107</v>
       </c>
       <c r="D23" s="3">
@@ -1300,7 +1318,7 @@
         <f t="shared" si="4"/>
         <v>1.3833333333333309</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>31.124999999999943</v>
       </c>
@@ -1308,14 +1326,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>0.58125000000000004</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>0.63055555555555554</v>
       </c>
       <c r="D24" s="3">
@@ -1330,7 +1348,7 @@
         <f t="shared" si="4"/>
         <v>1.183333333333332</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>26.624999999999972</v>
       </c>
@@ -1338,14 +1356,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0.84861111111111109</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>0.91041666666666665</v>
       </c>
       <c r="D25" s="3">
@@ -1360,7 +1378,7 @@
         <f t="shared" si="4"/>
         <v>1.4833333333333334</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>33.375</v>
       </c>
@@ -1368,14 +1386,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.48888888888888887</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.7006944444444444</v>
       </c>
       <c r="D26" s="3">
@@ -1390,7 +1408,7 @@
         <f t="shared" si="4"/>
         <v>5.0833333333333321</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>114.37499999999997</v>
       </c>
@@ -1398,14 +1416,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0.74027777777777781</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0.7583333333333333</v>
       </c>
       <c r="D27" s="3">
@@ -1420,7 +1438,7 @@
         <f t="shared" si="4"/>
         <v>0.43333333333333179</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>9.7499999999999645</v>
       </c>
@@ -1428,14 +1446,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0.91736111111111107</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>0.99375000000000002</v>
       </c>
       <c r="D28" s="3">
@@ -1450,7 +1468,7 @@
         <f t="shared" si="4"/>
         <v>1.8333333333333348</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>41.250000000000036</v>
       </c>
@@ -1458,14 +1476,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45598</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0.46875</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>0.54166666666666663</v>
       </c>
       <c r="D29" s="3">
@@ -1480,7 +1498,7 @@
         <f t="shared" si="4"/>
         <v>1.7499999999999991</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>39.374999999999979</v>
       </c>
@@ -1488,14 +1506,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45598</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>0.61805555555555558</v>
       </c>
       <c r="D30" s="3">
@@ -1510,7 +1528,7 @@
         <f t="shared" si="4"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
@@ -1518,14 +1536,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45599</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>0.59375</v>
       </c>
       <c r="D31" s="3">
@@ -1540,7 +1558,7 @@
         <f t="shared" si="4"/>
         <v>4.2333333333333325</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>95.249999999999986</v>
       </c>
@@ -1548,14 +1566,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45599</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>0.81597222222222221</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>0.87291666666666667</v>
       </c>
       <c r="D32" s="3">
@@ -1570,7 +1588,7 @@
         <f t="shared" si="4"/>
         <v>1.3666666666666671</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>30.750000000000011</v>
       </c>
@@ -1578,14 +1596,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45599</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0.94444444444444442</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>0.96944444444444444</v>
       </c>
       <c r="D33" s="3">
@@ -1600,7 +1618,7 @@
         <f t="shared" si="4"/>
         <v>0.60000000000000042</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f t="shared" si="0"/>
         <v>13.500000000000009</v>
       </c>
@@ -1608,14 +1626,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45601</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>0.94444444444444442</v>
       </c>
       <c r="D34" s="3">
@@ -1630,7 +1648,7 @@
         <f t="shared" si="4"/>
         <v>1.1666666666666652</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>26.249999999999968</v>
       </c>
@@ -1638,14 +1656,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45602</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>0.81944444444444442</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>0.90625</v>
       </c>
       <c r="D35" s="3">
@@ -1660,7 +1678,7 @@
         <f t="shared" si="4"/>
         <v>2.0833333333333339</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>46.875000000000014</v>
       </c>
@@ -1668,14 +1686,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45602</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>0.94722222222222219</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>0.98055555555555551</v>
       </c>
       <c r="D36" s="3">
@@ -1690,7 +1708,7 @@
         <f t="shared" si="4"/>
         <v>0.79999999999999971</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <f t="shared" si="0"/>
         <v>17.999999999999993</v>
       </c>
@@ -1698,14 +1716,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45603</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>0.75694444444444442</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>0.79861111111111116</v>
       </c>
       <c r="D37" s="3">
@@ -1720,7 +1738,7 @@
         <f t="shared" si="4"/>
         <v>1.0000000000000018</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <f t="shared" si="0"/>
         <v>22.500000000000039</v>
       </c>
@@ -1728,14 +1746,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45603</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>0.89930555555555558</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>0.92708333333333337</v>
       </c>
       <c r="D38" s="3">
@@ -1750,7 +1768,7 @@
         <f t="shared" si="4"/>
         <v>0.66666666666666685</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>15.000000000000004</v>
       </c>
@@ -1758,14 +1776,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>0.54513888888888884</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>0.5708333333333333</v>
       </c>
       <c r="D39" s="3">
@@ -1780,7 +1798,7 @@
         <f t="shared" si="4"/>
         <v>0.61666666666666714</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <f t="shared" si="0"/>
         <v>13.875000000000011</v>
       </c>
@@ -1788,14 +1806,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>0.77638888888888891</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>0.85763888888888884</v>
       </c>
       <c r="D40" s="3">
@@ -1810,7 +1828,7 @@
         <f t="shared" si="4"/>
         <v>1.9499999999999984</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <f t="shared" si="0"/>
         <v>43.874999999999964</v>
       </c>
@@ -1818,14 +1836,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>0.84027777777777779</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>0.9291666666666667</v>
       </c>
       <c r="D41" s="3">
@@ -1840,7 +1858,7 @@
         <f t="shared" si="4"/>
         <v>2.1333333333333337</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <f t="shared" si="0"/>
         <v>48.000000000000007</v>
       </c>
@@ -1848,14 +1866,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45607</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>0.45694444444444443</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>0.6118055555555556</v>
       </c>
       <c r="D42" s="3">
@@ -1870,7 +1888,7 @@
         <f t="shared" si="4"/>
         <v>3.7166666666666681</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <f t="shared" si="0"/>
         <v>83.625000000000028</v>
       </c>
@@ -1878,14 +1896,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>0.62986111111111109</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>0.76527777777777772</v>
       </c>
       <c r="D43" s="3">
@@ -1900,7 +1918,7 @@
         <f t="shared" si="4"/>
         <v>3.2499999999999991</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <f t="shared" si="0"/>
         <v>73.124999999999986</v>
       </c>
@@ -1908,14 +1926,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>0.85277777777777775</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>0.91319444444444442</v>
       </c>
       <c r="D44" s="3">
@@ -1930,7 +1948,7 @@
         <f t="shared" si="4"/>
         <v>1.4500000000000002</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <f t="shared" si="0"/>
         <v>32.625000000000007</v>
       </c>
@@ -1938,14 +1956,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45610</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>0.91319444444444442</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>0.99305555555555558</v>
       </c>
       <c r="D45" s="3">
@@ -1960,7 +1978,7 @@
         <f t="shared" si="4"/>
         <v>1.9166666666666679</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <f t="shared" si="0"/>
         <v>43.125000000000028</v>
       </c>
@@ -1968,14 +1986,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45611</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>0.50694444444444442</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>0.63888888888888884</v>
       </c>
       <c r="D46" s="3">
@@ -1990,7 +2008,7 @@
         <f t="shared" si="4"/>
         <v>3.1666666666666661</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <f t="shared" si="0"/>
         <v>71.249999999999986</v>
       </c>
@@ -1998,14 +2016,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45613</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>0.72569444444444442</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>0.78055555555555556</v>
       </c>
       <c r="D47" s="3">
@@ -2020,7 +2038,7 @@
         <f t="shared" si="4"/>
         <v>1.3166666666666673</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <f t="shared" si="0"/>
         <v>29.625000000000014</v>
       </c>
@@ -2028,25 +2046,67 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45614</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+      <c r="C48" s="7">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="3"/>
+        <v>69.000000000000071</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1500000000000012</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>25.875000000000028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10138888888888886</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="3"/>
+        <v>145.99999999999997</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4333333333333327</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="0"/>
+        <v>54.749999999999986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6962A-8F50-4F13-9273-4BEC40B27EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB054D-7070-D142-A9C9-80ED3974E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="15200" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -147,6 +147,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,17 +485,17 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -538,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -569,15 +570,15 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(F:F)</f>
-        <v>82.600000000000009</v>
+        <v>84.416666666666671</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(G:G)</f>
-        <v>1858.5</v>
+        <v>1899.375</v>
       </c>
       <c r="K2" s="5">
         <f>J2*(1-0.18)</f>
-        <v>1523.97</v>
+        <v>1557.4875000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -591,7 +592,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -614,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G49" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G51" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -633,7 +634,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -676,7 +677,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -687,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D49" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D51" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E49" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E51" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F49" si="4">E5/60</f>
+        <f t="shared" ref="F5:F51" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -718,7 +719,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -760,7 +761,7 @@
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -802,7 +803,7 @@
         <v>195.37499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -844,7 +845,7 @@
         <v>234.375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -886,7 +887,7 @@
         <v>333.375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -920,15 +921,15 @@
         <v>9</v>
       </c>
       <c r="M10" s="3">
-        <f>SUM(D48:D49)</f>
-        <v>0.14930555555555558</v>
+        <f>SUM(D48:D51)</f>
+        <v>0.22500000000000009</v>
       </c>
       <c r="N10" s="5">
-        <f>SUM(G48:G49)</f>
-        <v>80.625000000000014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(G48:G51)</f>
+        <v>121.50000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45575</v>
       </c>
@@ -962,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -996,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45577</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45598</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45598</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45599</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45599</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45599</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45601</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45602</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45602</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45603</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45603</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45607</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45610</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45611</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45613</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45614</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>25.875000000000028</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45616</v>
       </c>
@@ -2100,7 +2101,61 @@
         <v>54.749999999999986</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="3"/>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="4"/>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="0"/>
+        <v>22.499999999999979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.70416666666666672</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4027777777777879E-2</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="3"/>
+        <v>49.000000000000142</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="4"/>
+        <v>0.81666666666666898</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="0"/>
+        <v>18.375000000000053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB054D-7070-D142-A9C9-80ED3974E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7669F65-DBE8-514E-B10B-77C7E0B41638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="15200" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2073,8 +2073,11 @@
         <f t="shared" si="0"/>
         <v>25.875000000000028</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45616</v>
       </c>
@@ -2100,8 +2103,11 @@
         <f t="shared" si="0"/>
         <v>54.749999999999986</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45618</v>
       </c>
@@ -2127,8 +2133,11 @@
         <f t="shared" si="0"/>
         <v>22.499999999999979</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45624</v>
       </c>
@@ -2154,8 +2163,11 @@
         <f t="shared" si="0"/>
         <v>18.375000000000053</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcarr/Documents/CV_OrigamiRobot_Fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7669F65-DBE8-514E-B10B-77C7E0B41638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4364F8FB-6A1C-4F7E-948C-1758A4F8C941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="25560" windowHeight="15200" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="3240" yWindow="1005" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-4" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-4" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -484,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45563</v>
       </c>
@@ -569,15 +569,15 @@
         <v>14</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM(F:F)</f>
+        <f ca="1">SUM(F:F)</f>
         <v>84.416666666666671</v>
       </c>
       <c r="J2" s="5">
-        <f>SUM(G:G)</f>
+        <f ca="1">SUM(G:G)</f>
         <v>1899.375</v>
       </c>
       <c r="K2" s="5">
-        <f>J2*(1-0.18)</f>
+        <f ca="1">J2*(1-0.18)</f>
         <v>1557.4875000000002</v>
       </c>
       <c r="L2">
@@ -592,7 +592,7 @@
         <v>45.000000000000021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45565</v>
       </c>
@@ -615,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G51" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G52" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -634,7 +634,7 @@
         <v>219.37500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3</f>
         <v>45565</v>
@@ -677,7 +677,7 @@
         <v>272.99999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45565</v>
       </c>
@@ -688,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D51" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D52" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E51" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E52" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F51" si="4">E5/60</f>
+        <f t="shared" ref="F5:F52" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -719,7 +719,7 @@
         <v>220.87500000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45566</v>
       </c>
@@ -761,7 +761,7 @@
         <v>256.49999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45567</v>
       </c>
@@ -803,7 +803,7 @@
         <v>195.37499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45570</v>
       </c>
@@ -845,7 +845,7 @@
         <v>234.375</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45571</v>
       </c>
@@ -887,7 +887,7 @@
         <v>333.375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45575</v>
       </c>
@@ -929,7 +929,7 @@
         <v>121.50000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45575</v>
       </c>
@@ -962,8 +962,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="4">
+        <f ca="1">SUM(F52)</f>
+        <v>0.5166666666666675</v>
+      </c>
+      <c r="N11" s="5">
+        <f ca="1">SUM(G52)</f>
+        <v>11.625000000000018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45577</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45578</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45578</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45578</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45579</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45580</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45583</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45584</v>
       </c>
@@ -1267,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45585</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45586</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1357,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45588</v>
       </c>
@@ -1387,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45592</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45592</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45598</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45598</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45599</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45599</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45599</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45601</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45602</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45602</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45603</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45603</v>
       </c>
@@ -1777,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45604</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45606</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45607</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45610</v>
       </c>
@@ -1987,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45611</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45613</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45614</v>
       </c>
@@ -2077,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45616</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45618</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45624</v>
       </c>
@@ -2167,7 +2175,34 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45629</v>
+      </c>
+      <c r="B52" s="10">
+        <v>0.85347222222222219</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1527777777777812E-2</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>31.00000000000005</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.5166666666666675</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.625000000000018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4364F8FB-6A1C-4F7E-948C-1758A4F8C941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8CF12A-C7F7-4549-A30B-9BEBBF0C42E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1005" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
+    <workbookView xWindow="3240" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-4" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="1E-4" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,16 +569,16 @@
         <v>14</v>
       </c>
       <c r="I2" s="4">
-        <f ca="1">SUM(F:F)</f>
-        <v>84.416666666666671</v>
+        <f>SUM(F:F)</f>
+        <v>86.433333333333337</v>
       </c>
       <c r="J2" s="5">
-        <f ca="1">SUM(G:G)</f>
-        <v>1899.375</v>
+        <f>SUM(G:G)</f>
+        <v>1944.75</v>
       </c>
       <c r="K2" s="5">
-        <f ca="1">J2*(1-0.18)</f>
-        <v>1557.4875000000002</v>
+        <f>J2*(1-0.18)</f>
+        <v>1594.6950000000002</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G52" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G53" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -688,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D52" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D53" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E52" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E53" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F52" si="4">E5/60</f>
+        <f t="shared" ref="F5:F53" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -963,12 +963,12 @@
         <v>10</v>
       </c>
       <c r="M11" s="4">
-        <f ca="1">SUM(F52)</f>
-        <v>0.5166666666666675</v>
+        <f>SUM(F52:F53)</f>
+        <v>2.0166666666666675</v>
       </c>
       <c r="N11" s="5">
-        <f ca="1">SUM(G52)</f>
-        <v>11.625000000000018</v>
+        <f>SUM(G52:G53)</f>
+        <v>45.375000000000014</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2186,20 +2186,47 @@
         <v>0.875</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>2.1527777777777812E-2</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>31.00000000000005</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.5166666666666675</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>11.625000000000018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8CF12A-C7F7-4549-A30B-9BEBBF0C42E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3D05C-4ADC-4314-8B40-EFE836628807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(F:F)</f>
-        <v>86.433333333333337</v>
+        <v>87.9</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(G:G)</f>
-        <v>1944.75</v>
+        <v>1977.75</v>
       </c>
       <c r="K2" s="5">
         <f>J2*(1-0.18)</f>
-        <v>1594.6950000000002</v>
+        <v>1621.7550000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G53" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G54" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -688,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D53" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D54" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E53" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E54" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F53" si="4">E5/60</f>
+        <f t="shared" ref="F5:F54" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -963,12 +963,12 @@
         <v>10</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM(F52:F53)</f>
-        <v>2.0166666666666675</v>
+        <f>SUM(F52:F54)</f>
+        <v>3.4833333333333343</v>
       </c>
       <c r="N11" s="5">
-        <f>SUM(G52:G53)</f>
-        <v>45.375000000000014</v>
+        <f>SUM(G52:G54)</f>
+        <v>78.375000000000014</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2227,6 +2227,33 @@
       <c r="G53" s="5">
         <f t="shared" si="0"/>
         <v>33.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45633</v>
+      </c>
+      <c r="B54" s="10">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.86041666666666672</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="2"/>
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3D05C-4ADC-4314-8B40-EFE836628807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90961297-5B9A-4154-9D35-1BA430274A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(F:F)</f>
-        <v>87.9</v>
+        <v>89.183333333333337</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(G:G)</f>
-        <v>1977.75</v>
+        <v>2006.625</v>
       </c>
       <c r="K2" s="5">
         <f>J2*(1-0.18)</f>
-        <v>1621.7550000000001</v>
+        <v>1645.4325000000001</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G54" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G55" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -688,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D54" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D55" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E54" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E55" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F54" si="4">E5/60</f>
+        <f t="shared" ref="F5:F55" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -963,8 +963,8 @@
         <v>10</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM(F52:F54)</f>
-        <v>3.4833333333333343</v>
+        <f>SUM(F52:F55)</f>
+        <v>4.7666666666666684</v>
       </c>
       <c r="N11" s="5">
         <f>SUM(G52:G54)</f>
@@ -2254,6 +2254,33 @@
       <c r="G54" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45634</v>
+      </c>
+      <c r="B55" s="10">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="2"/>
+        <v>5.3472222222222254E-2</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="3"/>
+        <v>77.000000000000043</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2833333333333341</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="0"/>
+        <v>28.875000000000018</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90961297-5B9A-4154-9D35-1BA430274A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFE664-6A02-4308-BD54-4B79B96EDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2283,6 +2283,14 @@
         <v>28.875000000000018</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45634</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0.77361111111111114</v>
+      </c>
+    </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>10</v>

--- a/Excel Time Sheet.xlsx
+++ b/Excel Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Carr\Downloads\CV_OrigamiRobot_Fall2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFE664-6A02-4308-BD54-4B79B96EDEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4653A9-5E12-43ED-911D-78B6FF9330CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="285" windowWidth="25560" windowHeight="15195" xr2:uid="{224015C0-04A6-AE4F-9153-85C745022AD7}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450EA8C-00B7-4644-8B52-A8FB020FE4FD}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(F:F)</f>
-        <v>89.183333333333337</v>
+        <v>91.866666666666674</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(G:G)</f>
-        <v>2006.625</v>
+        <v>2067</v>
       </c>
       <c r="K2" s="5">
         <f>J2*(1-0.18)</f>
-        <v>1645.4325000000001</v>
+        <v>1694.94</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G55" si="0">F3*22.5</f>
+        <f t="shared" ref="G3:G56" si="0">F3*22.5</f>
         <v>33.75</v>
       </c>
       <c r="H3" t="s">
@@ -688,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D55" si="2">C5-B5</f>
+        <f t="shared" ref="D5:D56" si="2">C5-B5</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E55" si="3">D5*1440</f>
+        <f t="shared" ref="E5:E56" si="3">D5*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F55" si="4">E5/60</f>
+        <f t="shared" ref="F5:F56" si="4">E5/60</f>
         <v>0.999999999999999</v>
       </c>
       <c r="G5" s="5">
@@ -2289,6 +2289,25 @@
       </c>
       <c r="B56" s="10">
         <v>0.77361111111111114</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11180555555555549</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="3"/>
+        <v>160.99999999999991</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6833333333333318</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="0"/>
+        <v>60.374999999999964</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
